--- a/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Mdk-Ptprz1.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H2">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J2">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N2">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P2">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q2">
-        <v>0.1114709685901986</v>
+        <v>0.2163456791173333</v>
       </c>
       <c r="R2">
-        <v>0.1114709685901986</v>
+        <v>1.947111112056</v>
       </c>
       <c r="S2">
-        <v>0.0006785167486549128</v>
+        <v>0.001219397580254977</v>
       </c>
       <c r="T2">
-        <v>0.0006785167486549128</v>
+        <v>0.001219397580254977</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6110593330126</v>
+        <v>2.098888</v>
       </c>
       <c r="H3">
-        <v>1.6110593330126</v>
+        <v>6.296664</v>
       </c>
       <c r="I3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="J3">
-        <v>0.08660957823615434</v>
+        <v>0.1082453658858517</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N3">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P3">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q3">
-        <v>14.11729139329936</v>
+        <v>18.98856137751467</v>
       </c>
       <c r="R3">
-        <v>14.11729139329936</v>
+        <v>170.897052397632</v>
       </c>
       <c r="S3">
-        <v>0.08593106148749942</v>
+        <v>0.1070259683055967</v>
       </c>
       <c r="T3">
-        <v>0.08593106148749942</v>
+        <v>0.1070259683055967</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H4">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I4">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J4">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N4">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P4">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q4">
-        <v>1.080252250965438</v>
+        <v>1.636351600299889</v>
       </c>
       <c r="R4">
-        <v>1.080252250965438</v>
+        <v>14.727164402699</v>
       </c>
       <c r="S4">
-        <v>0.006575427255385567</v>
+        <v>0.009223032278679693</v>
       </c>
       <c r="T4">
-        <v>0.006575427255385567</v>
+        <v>0.009223032278679693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>15.6125894745187</v>
+        <v>15.87514366666667</v>
       </c>
       <c r="H5">
-        <v>15.6125894745187</v>
+        <v>47.625431</v>
       </c>
       <c r="I5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843848</v>
       </c>
       <c r="J5">
-        <v>0.8393233953921122</v>
+        <v>0.8187243600843847</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N5">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P5">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q5">
-        <v>136.8090364515553</v>
+        <v>143.6218320803031</v>
       </c>
       <c r="R5">
-        <v>136.8090364515553</v>
+        <v>1292.596488722728</v>
       </c>
       <c r="S5">
-        <v>0.8327479681367266</v>
+        <v>0.8095013278057051</v>
       </c>
       <c r="T5">
-        <v>0.8327479681367266</v>
+        <v>0.8095013278057051</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H6">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I6">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J6">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.069191100728583</v>
+        <v>0.1030763333333333</v>
       </c>
       <c r="N6">
-        <v>0.069191100728583</v>
+        <v>0.309229</v>
       </c>
       <c r="O6">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="P6">
-        <v>0.007834199894206072</v>
+        <v>0.01126512502660735</v>
       </c>
       <c r="Q6">
-        <v>0.09532806114978135</v>
+        <v>0.1459626848853333</v>
       </c>
       <c r="R6">
-        <v>0.09532806114978135</v>
+        <v>1.313664163968</v>
       </c>
       <c r="S6">
-        <v>0.0005802558901655914</v>
+        <v>0.0008226951676726839</v>
       </c>
       <c r="T6">
-        <v>0.0005802558901655914</v>
+        <v>0.0008226951676726838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.3777503197084</v>
+        <v>1.416064</v>
       </c>
       <c r="H7">
-        <v>1.3777503197084</v>
+        <v>4.248192</v>
       </c>
       <c r="I7">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976368</v>
       </c>
       <c r="J7">
-        <v>0.0740670263717333</v>
+        <v>0.07303027402976367</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.762738344900519</v>
+        <v>9.046962666666667</v>
       </c>
       <c r="N7">
-        <v>8.762738344900519</v>
+        <v>27.140888</v>
       </c>
       <c r="O7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733926</v>
       </c>
       <c r="P7">
-        <v>0.9921658001057939</v>
+        <v>0.9887348749733927</v>
       </c>
       <c r="Q7">
-        <v>12.07286555620775</v>
+        <v>12.81107814161066</v>
       </c>
       <c r="R7">
-        <v>12.07286555620775</v>
+        <v>115.299703274496</v>
       </c>
       <c r="S7">
-        <v>0.07348677048156771</v>
+        <v>0.072207578862091</v>
       </c>
       <c r="T7">
-        <v>0.07348677048156771</v>
+        <v>0.07220757886209099</v>
       </c>
     </row>
   </sheetData>
